--- a/Testdata/ApplyReplacementLeave.xlsx
+++ b/Testdata/ApplyReplacementLeave.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -62,6 +62,12 @@
     <t>toTime</t>
   </si>
   <si>
+    <t>approverUsername</t>
+  </si>
+  <si>
+    <t>approverPassword</t>
+  </si>
+  <si>
     <t>china</t>
   </si>
   <si>
@@ -71,31 +77,10 @@
     <t>Normal Day</t>
   </si>
   <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>Deepavali</t>
-  </si>
-  <si>
-    <t>Awal Muharram</t>
-  </si>
-  <si>
-    <t>Evening</t>
-  </si>
-  <si>
-    <t>08:10</t>
-  </si>
-  <si>
-    <t>15:10</t>
-  </si>
-  <si>
-    <t>Chinese New Year</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>18:00</t>
+    <t>lax</t>
+  </si>
+  <si>
+    <t>qaz4321</t>
   </si>
 </sst>
 </file>
@@ -739,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -758,7 +743,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
@@ -1097,9 +1088,11 @@
     <col min="8" max="8" width="14.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="20.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1133,19 +1126,25 @@
       <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="b">
         <v>1</v>
@@ -1158,151 +1157,62 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>45783</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+    <row r="3" spans="12:13">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+    <row r="4" spans="12:13">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+    <row r="5" spans="12:13">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45784</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6">
-        <v>45784</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="6" spans="12:13">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="7" spans="12:13">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="12:13">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="12:13">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="12:13">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="12:13">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="12:13">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="12:13">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 E2:E7 G2:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 E2 G2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
